--- a/src/main/resources/populate/mental.xlsx
+++ b/src/main/resources/populate/mental.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Désencombrement du mental</t>
   </si>
   <si>
     <t>bientôt disponible</t>
+  </si>
+  <si>
+    <t>Diminuer sa charge mentale, alléger son agenda, choisir où placer son temps, son énergie et son argent, faire le tri dans ses contacts…</t>
   </si>
 </sst>
 </file>
@@ -362,21 +365,25 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
